--- a/test-data.xlsx
+++ b/test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianomidi/Dropbox/School Documents/W22/ECSE 420/a3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FAE6D5-F1A2-984D-B13B-BC4BA525EF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCE0C20-AC9A-A244-94B5-CA9CD3FE533B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20260" xr2:uid="{BC68A421-7387-AE44-958D-E297A8826234}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$I$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$I$3:$I$13</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$L$2</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$L$3:$L$13</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$I$2</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$I$3:$I$13</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$L$2</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$L$3:$L$13</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$3:$B$13</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$3:$E$13</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$B$3:$B$13</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$E$2</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$E$3:$E$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,16 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
-  <si>
-    <t>2000 x 2000</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>time - par (s)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Matrix size</t>
   </si>
@@ -221,7 +212,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$2</c:f>
+              <c:f>Sheet1!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -256,7 +247,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$13</c:f>
+              <c:f>Sheet1!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -298,7 +289,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$13</c:f>
+              <c:f>Sheet1!$C$3:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -350,7 +341,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$2</c:f>
+              <c:f>Sheet1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -385,7 +376,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$13</c:f>
+              <c:f>Sheet1!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -427,7 +418,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$13</c:f>
+              <c:f>Sheet1!$D$3:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -898,7 +889,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$2</c:f>
+              <c:f>Sheet1!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -933,7 +924,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$13</c:f>
+              <c:f>Sheet1!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -975,7 +966,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$13</c:f>
+              <c:f>Sheet1!$E$3:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2803,10 +2794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CC86C1-5B2C-BF4A-B6D0-4CD883B02642}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="138" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2815,312 +2806,181 @@
     <col min="11" max="11" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f>C3/D3</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E13" si="0">C4/D4</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>47.389000000000003</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>1.2E-2</v>
-      </c>
-      <c r="F3">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>15</v>
-      </c>
-      <c r="L3">
-        <f>J3/K3</f>
-        <v>0.13333333333333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>24.062000000000001</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-      <c r="E4">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="F4">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="I4">
-        <v>1000</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>15</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L13" si="0">J4/K4</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>16.189</v>
+        <v>2000</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>0.35</v>
-      </c>
-      <c r="F5">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="I5">
-        <v>2000</v>
-      </c>
-      <c r="J5">
-        <v>17</v>
-      </c>
-      <c r="K5">
-        <v>20</v>
-      </c>
-      <c r="L5">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>10.826000000000001</v>
+        <v>3000</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2.0630000000000002</v>
-      </c>
-      <c r="F6">
-        <v>0.498</v>
-      </c>
-      <c r="I6">
-        <v>3000</v>
-      </c>
-      <c r="J6">
-        <v>35</v>
-      </c>
-      <c r="K6">
-        <v>24</v>
-      </c>
-      <c r="L6">
         <f t="shared" si="0"/>
         <v>1.4583333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>9.9049999999999994</v>
+        <v>4000</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>2000</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>50.212000000000003</v>
-      </c>
-      <c r="F7">
-        <v>6.4320000000000004</v>
-      </c>
-      <c r="I7">
-        <v>4000</v>
-      </c>
-      <c r="J7">
-        <v>60</v>
-      </c>
-      <c r="K7">
-        <v>26</v>
-      </c>
-      <c r="L7">
         <f t="shared" si="0"/>
         <v>2.3076923076923075</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>8.1530000000000005</v>
+        <v>5000</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
       </c>
       <c r="D8">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>190.12700000000001</v>
-      </c>
-      <c r="F8">
-        <v>23.132999999999999</v>
-      </c>
-      <c r="I8">
-        <v>5000</v>
-      </c>
-      <c r="J8">
-        <v>90</v>
-      </c>
-      <c r="K8">
-        <v>30</v>
-      </c>
-      <c r="L8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>6.2069999999999999</v>
+        <v>6000</v>
+      </c>
+      <c r="C9">
+        <v>127</v>
       </c>
       <c r="D9">
-        <v>4000</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>449.34699999999998</v>
-      </c>
-      <c r="F9">
-        <v>57.594999999999999</v>
-      </c>
-      <c r="I9">
-        <v>6000</v>
-      </c>
-      <c r="J9">
-        <v>127</v>
-      </c>
-      <c r="K9">
-        <v>28</v>
-      </c>
-      <c r="L9">
         <f t="shared" si="0"/>
         <v>4.5357142857142856</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>5.758</v>
-      </c>
-      <c r="I10">
         <v>7000</v>
       </c>
-      <c r="J10">
+      <c r="C10">
         <v>173</v>
       </c>
-      <c r="K10">
+      <c r="D10">
         <v>31</v>
       </c>
-      <c r="L10">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>5.580645161290323</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I11">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11">
         <v>8000</v>
       </c>
-      <c r="J11">
+      <c r="C11">
         <v>227</v>
       </c>
-      <c r="K11">
+      <c r="D11">
         <v>34</v>
       </c>
-      <c r="L11">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>6.6764705882352944</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I12">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12">
         <v>9000</v>
       </c>
-      <c r="J12">
+      <c r="C12">
         <v>282</v>
       </c>
-      <c r="K12">
+      <c r="D12">
         <v>37</v>
       </c>
-      <c r="L12">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>7.6216216216216219</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I13">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13">
         <v>10000</v>
       </c>
-      <c r="J13">
+      <c r="C13">
         <v>348</v>
       </c>
-      <c r="K13">
+      <c r="D13">
         <v>39</v>
       </c>
-      <c r="L13">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>8.9230769230769234</v>
       </c>
